--- a/data - Vinh Thanh.xlsx
+++ b/data - Vinh Thanh.xlsx
@@ -1,30 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Other computers\My PC HOME\code\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Other computers\My Laptop (1)\Work\code\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCF9CF82-F355-4C9C-9DEF-644FF81C42DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="3800" windowHeight="2760"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="20460" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="39">
   <si>
     <t>URL</t>
   </si>
@@ -71,18 +81,12 @@
     <t>Chuyển trạng thái hồ sơ</t>
   </si>
   <si>
-    <t>https://motcua.vinhthanh.cantho.gov.vn/</t>
-  </si>
-  <si>
     <t>Xã Vĩnh Trinh</t>
   </si>
   <si>
     <t>admin_vinhtrinh</t>
   </si>
   <si>
-    <t>Unitech@</t>
-  </si>
-  <si>
     <t>Xã Vĩnh Bình</t>
   </si>
   <si>
@@ -141,27 +145,25 @@
   </si>
   <si>
     <t>admin_thitranthanhan</t>
+  </si>
+  <si>
+    <t>`</t>
+  </si>
+  <si>
+    <t>https://motcuahuyen.cantho.gov.vn/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-10491]dd/mm/yyyy;@"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -333,31 +335,30 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="5" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="6" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="2" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
@@ -372,24 +373,19 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -667,36 +663,36 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:P14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
+      <selection pane="bottomLeft" activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.1796875" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="8" customWidth="1"/>
-    <col min="3" max="3" width="21.90625" style="8" customWidth="1"/>
-    <col min="4" max="4" width="15.08984375" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.08984375" style="10" customWidth="1"/>
-    <col min="6" max="6" width="15.7265625" style="10" customWidth="1"/>
-    <col min="7" max="7" width="17.26953125" style="10" customWidth="1"/>
-    <col min="8" max="8" width="17.1796875" style="10" customWidth="1"/>
-    <col min="9" max="9" width="12.54296875" style="10" customWidth="1"/>
-    <col min="10" max="10" width="13.6328125" style="10" customWidth="1"/>
-    <col min="11" max="11" width="12.90625" style="10" customWidth="1"/>
-    <col min="12" max="12" width="12.7265625" style="10" customWidth="1"/>
-    <col min="13" max="13" width="13.08984375" style="10" customWidth="1"/>
-    <col min="14" max="14" width="14.26953125" style="10" customWidth="1"/>
-    <col min="15" max="15" width="26.26953125" style="8" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="8.7265625" style="8"/>
+    <col min="1" max="1" width="36.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.85546875" style="8" customWidth="1"/>
+    <col min="3" max="3" width="21.85546875" style="8" customWidth="1"/>
+    <col min="4" max="4" width="21.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" style="10" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" style="10" customWidth="1"/>
+    <col min="7" max="7" width="17.28515625" style="10" customWidth="1"/>
+    <col min="8" max="8" width="17.140625" style="10" customWidth="1"/>
+    <col min="9" max="9" width="12.5703125" style="10" customWidth="1"/>
+    <col min="10" max="10" width="13.5703125" style="10" customWidth="1"/>
+    <col min="11" max="11" width="12.85546875" style="10" customWidth="1"/>
+    <col min="12" max="12" width="12.7109375" style="10" customWidth="1"/>
+    <col min="13" max="13" width="13.140625" style="10" customWidth="1"/>
+    <col min="14" max="14" width="14.28515625" style="10" customWidth="1"/>
+    <col min="15" max="15" width="26.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="8.7109375" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="2" customFormat="1" ht="34" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:16" s="2" customFormat="1" ht="33.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -743,18 +739,19 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="C2" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>18</v>
+      <c r="D2" s="14" t="str">
+        <f>PROPER(RIGHT(C2,LEN(C2)-6))&amp;"@2025"</f>
+        <v>Vinhtrinh@2025</v>
       </c>
       <c r="E2" s="9">
         <v>45658</v>
@@ -787,36 +784,38 @@
         <v>45538</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="14" t="s">
         <v>18</v>
+      </c>
+      <c r="D3" s="14" t="str">
+        <f t="shared" ref="D3:D12" si="0">PROPER(RIGHT(C3,LEN(C3)-6))&amp;"@2025"</f>
+        <v>Vinhbinh@2025</v>
       </c>
       <c r="E3" s="9"/>
       <c r="F3" s="9"/>
       <c r="G3" s="9"/>
       <c r="O3" s="12"/>
     </row>
-    <row r="4" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="15" t="s">
-        <v>18</v>
+        <v>20</v>
+      </c>
+      <c r="D4" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>Thanhmy@2025</v>
       </c>
       <c r="E4" s="9"/>
       <c r="F4" s="9"/>
@@ -824,135 +823,148 @@
       <c r="O4" s="12"/>
       <c r="P4" s="13"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>18</v>
+        <v>22</v>
+      </c>
+      <c r="D5" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>Thanhquoi@2025</v>
       </c>
       <c r="E5" s="9"/>
       <c r="F5" s="9"/>
       <c r="G5" s="9"/>
       <c r="O5" s="12"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" s="15" t="s">
-        <v>18</v>
+        <v>24</v>
+      </c>
+      <c r="D6" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>Thanhan@2025</v>
       </c>
       <c r="E6" s="9"/>
       <c r="F6" s="9"/>
       <c r="G6" s="9"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>18</v>
+        <v>26</v>
+      </c>
+      <c r="D7" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>Thanhtien@2025</v>
       </c>
       <c r="E7" s="9"/>
       <c r="F7" s="9"/>
       <c r="G7" s="9"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>18</v>
+        <v>28</v>
+      </c>
+      <c r="D8" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>Thanhthang@2025</v>
       </c>
       <c r="E8" s="9"/>
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9" s="15" t="s">
-        <v>18</v>
+        <v>30</v>
+      </c>
+      <c r="D9" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>Thanhloi@2025</v>
       </c>
       <c r="E9" s="9"/>
       <c r="F9" s="9"/>
       <c r="G9" s="9"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="D10" s="15" t="s">
-        <v>18</v>
+        <v>32</v>
+      </c>
+      <c r="D10" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>Thanhloc@2025</v>
       </c>
       <c r="E10" s="9"/>
       <c r="F10" s="9"/>
       <c r="G10" s="9"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="B11" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>Thitranvinhthanh@2025</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C12" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="D11" s="15" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A12" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="8" t="s">
+      <c r="D12" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>Thitranthanhan@2025</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="E14" s="10" t="s">
         <v>37</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="D12" s="15" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>
